--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ege\Documents\GitHub\MotivationButtons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD72FFBE-B7E6-41AE-9918-DFA360825D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC3DA94-B8FF-47FE-BFAA-ED752BE326C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45790" yWindow="3720" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44010" yWindow="3500" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="214">
   <si>
     <t>Firma Adı :KFC</t>
   </si>
@@ -475,9 +475,6 @@
     <t>23</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>f8f1a067-a38f-4f6f-0737-08d9519ada25</t>
   </si>
   <si>
@@ -505,9 +502,6 @@
     <t>19</t>
   </si>
   <si>
-    <t>Aday</t>
-  </si>
-  <si>
     <t>812512e7-7a8f-449b-0738-08d9519ada25</t>
   </si>
   <si>
@@ -665,6 +659,9 @@
   </si>
   <si>
     <t>BOSTANCI</t>
+  </si>
+  <si>
+    <t>DOLDURULMAMIS</t>
   </si>
 </sst>
 </file>
@@ -716,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -724,6 +721,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,10 +1030,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EC17"/>
+  <dimension ref="A1:EC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
+      <selection activeCell="DF7" sqref="DF7:DF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1145,7 +1148,11 @@
     <col min="108" max="108" width="7.1796875" customWidth="1"/>
     <col min="109" max="109" width="10.453125" customWidth="1"/>
     <col min="110" max="110" width="14.1796875" customWidth="1"/>
-    <col min="111" max="129" width="9.1796875" customWidth="1"/>
+    <col min="111" max="120" width="9.1796875" customWidth="1"/>
+    <col min="121" max="121" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="9.1796875" customWidth="1"/>
+    <col min="123" max="123" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="124" max="129" width="9.1796875" customWidth="1"/>
     <col min="130" max="130" width="16.1796875" customWidth="1"/>
     <col min="131" max="131" width="12.1796875" customWidth="1"/>
     <col min="132" max="132" width="14" customWidth="1"/>
@@ -2715,7 +2722,7 @@
       <c r="DE7">
         <v>13</v>
       </c>
-      <c r="DF7">
+      <c r="DF7" s="6">
         <v>11</v>
       </c>
       <c r="DG7" t="s">
@@ -2727,7 +2734,7 @@
       <c r="DI7" t="s">
         <v>97</v>
       </c>
-      <c r="DJ7" t="s">
+      <c r="DJ7" s="5" t="s">
         <v>98</v>
       </c>
       <c r="DK7" t="s">
@@ -2748,9 +2755,15 @@
       <c r="DP7" t="s">
         <v>144</v>
       </c>
+      <c r="DQ7" t="s">
+        <v>213</v>
+      </c>
       <c r="DR7" t="s">
         <v>145</v>
       </c>
+      <c r="DS7" t="s">
+        <v>213</v>
+      </c>
       <c r="DT7" t="s">
         <v>146</v>
       </c>
@@ -2763,16 +2776,19 @@
       <c r="DW7" t="s">
         <v>149</v>
       </c>
+      <c r="DX7" t="s">
+        <v>173</v>
+      </c>
       <c r="DY7" t="s">
         <v>150</v>
       </c>
-      <c r="DZ7" t="s">
-        <v>151</v>
+      <c r="DZ7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>138</v>
@@ -2781,10 +2797,10 @@
         <v>139</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
@@ -3098,7 +3114,7 @@
       <c r="DE8">
         <v>9</v>
       </c>
-      <c r="DF8">
+      <c r="DF8" s="6">
         <v>14</v>
       </c>
       <c r="DG8" t="s">
@@ -3110,14 +3126,14 @@
       <c r="DI8" t="s">
         <v>100</v>
       </c>
-      <c r="DJ8" t="s">
+      <c r="DJ8" s="5" t="s">
         <v>106</v>
       </c>
       <c r="DK8" t="s">
         <v>109</v>
       </c>
       <c r="DL8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="DM8" t="s">
         <v>142</v>
@@ -3129,33 +3145,42 @@
         <v>143</v>
       </c>
       <c r="DP8" t="s">
+        <v>154</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>213</v>
+      </c>
+      <c r="DR8" t="s">
         <v>155</v>
       </c>
-      <c r="DR8" t="s">
+      <c r="DS8" t="s">
+        <v>213</v>
+      </c>
+      <c r="DT8" t="s">
         <v>156</v>
-      </c>
-      <c r="DT8" t="s">
-        <v>157</v>
       </c>
       <c r="DU8" t="s">
         <v>147</v>
       </c>
       <c r="DV8" t="s">
+        <v>157</v>
+      </c>
+      <c r="DW8" t="s">
         <v>158</v>
       </c>
-      <c r="DW8" t="s">
+      <c r="DX8" t="s">
+        <v>173</v>
+      </c>
+      <c r="DY8" t="s">
         <v>159</v>
       </c>
-      <c r="DY8" t="s">
-        <v>160</v>
-      </c>
-      <c r="DZ8" t="s">
-        <v>161</v>
+      <c r="DZ8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>138</v>
@@ -3164,10 +3189,10 @@
         <v>139</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -3481,7 +3506,7 @@
       <c r="DE9">
         <v>9</v>
       </c>
-      <c r="DF9">
+      <c r="DF9" s="6">
         <v>12</v>
       </c>
       <c r="DG9" t="s">
@@ -3493,14 +3518,14 @@
       <c r="DI9" t="s">
         <v>98</v>
       </c>
-      <c r="DJ9" t="s">
+      <c r="DJ9" s="5" t="s">
         <v>100</v>
       </c>
       <c r="DK9" t="s">
         <v>106</v>
       </c>
       <c r="DL9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="DM9" t="s">
         <v>142</v>
@@ -3512,33 +3537,42 @@
         <v>143</v>
       </c>
       <c r="DP9" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>213</v>
       </c>
       <c r="DR9" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>213</v>
       </c>
       <c r="DT9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="DU9" t="s">
         <v>147</v>
       </c>
       <c r="DV9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DW9" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>173</v>
       </c>
       <c r="DY9" t="s">
-        <v>168</v>
-      </c>
-      <c r="DZ9" t="s">
-        <v>161</v>
+        <v>166</v>
+      </c>
+      <c r="DZ9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>138</v>
@@ -3547,10 +3581,10 @@
         <v>139</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -3864,7 +3898,7 @@
       <c r="DE10">
         <v>15</v>
       </c>
-      <c r="DF10">
+      <c r="DF10" s="6">
         <v>10</v>
       </c>
       <c r="DG10" t="s">
@@ -3876,14 +3910,14 @@
       <c r="DI10" t="s">
         <v>98</v>
       </c>
-      <c r="DJ10" t="s">
+      <c r="DJ10" s="5" t="s">
         <v>100</v>
       </c>
       <c r="DK10" t="s">
         <v>101</v>
       </c>
       <c r="DL10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="DM10" t="s">
         <v>142</v>
@@ -3895,36 +3929,42 @@
         <v>143</v>
       </c>
       <c r="DP10" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>213</v>
       </c>
       <c r="DR10" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>213</v>
       </c>
       <c r="DT10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="DU10" t="s">
         <v>147</v>
       </c>
       <c r="DV10" t="s">
+        <v>172</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>173</v>
+      </c>
+      <c r="DY10" t="s">
         <v>174</v>
       </c>
-      <c r="DW10" t="s">
-        <v>159</v>
-      </c>
-      <c r="DX10" t="s">
-        <v>175</v>
-      </c>
-      <c r="DY10" t="s">
-        <v>176</v>
-      </c>
-      <c r="DZ10" t="s">
-        <v>161</v>
+      <c r="DZ10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>138</v>
@@ -3933,10 +3973,10 @@
         <v>139</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -4250,7 +4290,7 @@
       <c r="DE11">
         <v>12</v>
       </c>
-      <c r="DF11">
+      <c r="DF11" s="6">
         <v>11</v>
       </c>
       <c r="DG11" t="s">
@@ -4262,14 +4302,14 @@
       <c r="DI11" t="s">
         <v>104</v>
       </c>
-      <c r="DJ11" t="s">
+      <c r="DJ11" s="5" t="s">
         <v>107</v>
       </c>
       <c r="DK11" t="s">
         <v>109</v>
       </c>
       <c r="DL11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="DM11" t="s">
         <v>142</v>
@@ -4281,36 +4321,42 @@
         <v>143</v>
       </c>
       <c r="DP11" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>213</v>
       </c>
       <c r="DR11" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>213</v>
       </c>
       <c r="DT11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="DU11" t="s">
         <v>147</v>
       </c>
       <c r="DV11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="DW11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DX11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="DY11" t="s">
-        <v>181</v>
-      </c>
-      <c r="DZ11" t="s">
-        <v>161</v>
+        <v>179</v>
+      </c>
+      <c r="DZ11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>138</v>
@@ -4319,10 +4365,10 @@
         <v>139</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
@@ -4636,7 +4682,7 @@
       <c r="DE12">
         <v>18</v>
       </c>
-      <c r="DF12">
+      <c r="DF12" s="6">
         <v>10</v>
       </c>
       <c r="DG12" t="s">
@@ -4648,14 +4694,14 @@
       <c r="DI12" t="s">
         <v>101</v>
       </c>
-      <c r="DJ12" t="s">
+      <c r="DJ12" s="5" t="s">
         <v>108</v>
       </c>
       <c r="DK12" t="s">
         <v>109</v>
       </c>
       <c r="DL12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="DM12" t="s">
         <v>142</v>
@@ -4667,10 +4713,16 @@
         <v>143</v>
       </c>
       <c r="DP12" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>213</v>
       </c>
       <c r="DR12" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>213</v>
       </c>
       <c r="DT12" t="s">
         <v>146</v>
@@ -4679,24 +4731,24 @@
         <v>147</v>
       </c>
       <c r="DV12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="DW12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DX12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="DY12" t="s">
         <v>150</v>
       </c>
-      <c r="DZ12" t="s">
-        <v>161</v>
+      <c r="DZ12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>138</v>
@@ -4705,10 +4757,10 @@
         <v>139</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F13" s="2">
         <v>3</v>
@@ -5022,7 +5074,7 @@
       <c r="DE13">
         <v>10</v>
       </c>
-      <c r="DF13">
+      <c r="DF13" s="6">
         <v>13</v>
       </c>
       <c r="DG13" t="s">
@@ -5034,14 +5086,14 @@
       <c r="DI13" t="s">
         <v>100</v>
       </c>
-      <c r="DJ13" t="s">
+      <c r="DJ13" s="5" t="s">
         <v>103</v>
       </c>
       <c r="DK13" t="s">
         <v>109</v>
       </c>
       <c r="DL13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="DM13" t="s">
         <v>142</v>
@@ -5055,8 +5107,14 @@
       <c r="DP13" t="s">
         <v>144</v>
       </c>
+      <c r="DQ13" t="s">
+        <v>213</v>
+      </c>
       <c r="DR13" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>213</v>
       </c>
       <c r="DT13" t="s">
         <v>146</v>
@@ -5065,24 +5123,24 @@
         <v>147</v>
       </c>
       <c r="DV13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="DW13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DX13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="DY13" t="s">
-        <v>191</v>
-      </c>
-      <c r="DZ13" t="s">
-        <v>161</v>
+        <v>189</v>
+      </c>
+      <c r="DZ13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>138</v>
@@ -5091,10 +5149,10 @@
         <v>139</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -5408,7 +5466,7 @@
       <c r="DE14">
         <v>8</v>
       </c>
-      <c r="DF14">
+      <c r="DF14" s="6">
         <v>10</v>
       </c>
       <c r="DG14" t="s">
@@ -5420,14 +5478,14 @@
       <c r="DI14" t="s">
         <v>101</v>
       </c>
-      <c r="DJ14" t="s">
+      <c r="DJ14" s="5" t="s">
         <v>103</v>
       </c>
       <c r="DK14" t="s">
         <v>107</v>
       </c>
       <c r="DL14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="DM14" t="s">
         <v>142</v>
@@ -5439,36 +5497,42 @@
         <v>143</v>
       </c>
       <c r="DP14" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="DQ14" t="s">
+        <v>213</v>
       </c>
       <c r="DR14" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>213</v>
       </c>
       <c r="DT14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="DU14" t="s">
         <v>147</v>
       </c>
       <c r="DV14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="DW14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="DX14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="DY14" t="s">
-        <v>191</v>
-      </c>
-      <c r="DZ14" t="s">
-        <v>161</v>
+        <v>189</v>
+      </c>
+      <c r="DZ14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>138</v>
@@ -5477,10 +5541,10 @@
         <v>139</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -5794,7 +5858,7 @@
       <c r="DE15">
         <v>9</v>
       </c>
-      <c r="DF15">
+      <c r="DF15" s="6">
         <v>16</v>
       </c>
       <c r="DG15" t="s">
@@ -5806,17 +5870,17 @@
       <c r="DI15" t="s">
         <v>98</v>
       </c>
-      <c r="DJ15" t="s">
+      <c r="DJ15" s="5" t="s">
         <v>104</v>
       </c>
       <c r="DK15" t="s">
         <v>109</v>
       </c>
       <c r="DL15" t="s">
+        <v>197</v>
+      </c>
+      <c r="DM15" t="s">
         <v>199</v>
-      </c>
-      <c r="DM15" t="s">
-        <v>201</v>
       </c>
       <c r="DN15" t="s">
         <v>143</v>
@@ -5825,36 +5889,42 @@
         <v>143</v>
       </c>
       <c r="DP15" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>213</v>
       </c>
       <c r="DR15" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>213</v>
       </c>
       <c r="DT15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="DU15" t="s">
         <v>147</v>
       </c>
       <c r="DV15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="DW15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="DX15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="DY15" t="s">
-        <v>203</v>
-      </c>
-      <c r="DZ15" t="s">
-        <v>161</v>
+        <v>201</v>
+      </c>
+      <c r="DZ15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>138</v>
@@ -5863,10 +5933,10 @@
         <v>139</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -6180,7 +6250,7 @@
       <c r="DE16">
         <v>11</v>
       </c>
-      <c r="DF16">
+      <c r="DF16" s="6">
         <v>14</v>
       </c>
       <c r="DG16" t="s">
@@ -6192,14 +6262,14 @@
       <c r="DI16" t="s">
         <v>101</v>
       </c>
-      <c r="DJ16" t="s">
+      <c r="DJ16" s="5" t="s">
         <v>103</v>
       </c>
       <c r="DK16" t="s">
         <v>106</v>
       </c>
       <c r="DL16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="DM16" t="s">
         <v>142</v>
@@ -6213,34 +6283,40 @@
       <c r="DP16" t="s">
         <v>144</v>
       </c>
+      <c r="DQ16" t="s">
+        <v>213</v>
+      </c>
       <c r="DR16" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>213</v>
       </c>
       <c r="DT16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="DU16" t="s">
         <v>147</v>
       </c>
       <c r="DV16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="DW16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DX16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="DY16" t="s">
-        <v>209</v>
-      </c>
-      <c r="DZ16" t="s">
-        <v>161</v>
+        <v>207</v>
+      </c>
+      <c r="DZ16">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:130" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>138</v>
@@ -6249,10 +6325,10 @@
         <v>139</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F17" s="2">
         <v>2</v>
@@ -6566,7 +6642,7 @@
       <c r="DE17">
         <v>11</v>
       </c>
-      <c r="DF17">
+      <c r="DF17" s="6">
         <v>11</v>
       </c>
       <c r="DG17" t="s">
@@ -6578,14 +6654,14 @@
       <c r="DI17" t="s">
         <v>102</v>
       </c>
-      <c r="DJ17" t="s">
+      <c r="DJ17" s="5" t="s">
         <v>106</v>
       </c>
       <c r="DK17" t="s">
         <v>109</v>
       </c>
       <c r="DL17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="DM17" t="s">
         <v>142</v>
@@ -6597,32 +6673,41 @@
         <v>143</v>
       </c>
       <c r="DP17" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="DQ17" t="s">
+        <v>213</v>
       </c>
       <c r="DR17" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="DS17" t="s">
+        <v>213</v>
       </c>
       <c r="DT17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="DU17" t="s">
         <v>147</v>
       </c>
       <c r="DV17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="DW17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DX17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="DY17" t="s">
-        <v>209</v>
-      </c>
-      <c r="DZ17" t="s">
-        <v>151</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="DZ17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="114:114" x14ac:dyDescent="0.35">
+      <c r="DJ35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ege\Documents\GitHub\MotivationButtons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC3DA94-B8FF-47FE-BFAA-ED752BE326C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F9B80F-69D8-46C4-BC7E-38FC1403054D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44010" yWindow="3500" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1032,8 +1032,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
-      <selection activeCell="DF7" sqref="DF7:DF17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ege\Documents\GitHub\MotivationButtons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F9B80F-69D8-46C4-BC7E-38FC1403054D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA228D6-9961-42F3-8B7F-ADBF24D9C6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44010" yWindow="3500" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43550" yWindow="4710" windowWidth="29980" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="208">
   <si>
     <t>Firma Adı :KFC</t>
   </si>
@@ -418,9 +418,6 @@
     <t>Şube Adı</t>
   </si>
   <si>
-    <t>Yaş</t>
-  </si>
-  <si>
     <t>Çalışma Durumu</t>
   </si>
   <si>
@@ -472,9 +469,6 @@
     <t>Part Time</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>f8f1a067-a38f-4f6f-0737-08d9519ada25</t>
   </si>
   <si>
@@ -499,9 +493,6 @@
     <t>Full Time</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>812512e7-7a8f-449b-0738-08d9519ada25</t>
   </si>
   <si>
@@ -520,9 +511,6 @@
     <t>2009</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>ff393d43-a28d-4dfb-073a-08d9519ada25</t>
   </si>
   <si>
@@ -544,9 +532,6 @@
     <t>ALTIYOL</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>f1e4e48b-8b7e-4279-073b-08d9519ada25</t>
   </si>
   <si>
@@ -559,9 +544,6 @@
     <t>KAVACIK/ISTANBUL</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>1f327719-34ac-4688-073c-08d9519ada25</t>
   </si>
   <si>
@@ -589,9 +571,6 @@
     <t>2021</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>d2ebc53b-3d7f-4dd3-073e-08d9519ada25</t>
   </si>
   <si>
@@ -625,9 +604,6 @@
     <t>2019</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>43b7107f-c283-411f-0741-08d9519ada25</t>
   </si>
   <si>
@@ -643,9 +619,6 @@
     <t>KARTAL/ISTANBUL</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>3dee406f-8a60-4022-3c99-08d9525fde39</t>
   </si>
   <si>
@@ -662,6 +635,15 @@
   </si>
   <si>
     <t>DOLDURULMAMIS</t>
+  </si>
+  <si>
+    <t>Ayrıldı</t>
+  </si>
+  <si>
+    <t>Çalışan</t>
+  </si>
+  <si>
+    <t>Aday</t>
   </si>
 </sst>
 </file>
@@ -713,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -727,6 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,8 +1015,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="DF1" workbookViewId="0">
+      <selection activeCell="DY28" sqref="DY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1041,7 +1024,7 @@
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" customWidth="1"/>
     <col min="3" max="3" width="7.453125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.453125" customWidth="1"/>
     <col min="6" max="6" width="42.36328125" customWidth="1"/>
     <col min="7" max="7" width="39.1796875" customWidth="1"/>
@@ -1152,7 +1135,8 @@
     <col min="121" max="121" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="9.1796875" customWidth="1"/>
     <col min="123" max="123" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="124" max="129" width="9.1796875" customWidth="1"/>
+    <col min="124" max="128" width="9.1796875" customWidth="1"/>
+    <col min="129" max="129" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="16.1796875" customWidth="1"/>
     <col min="131" max="131" width="12.1796875" customWidth="1"/>
     <col min="132" max="132" width="14" customWidth="1"/>
@@ -2382,33 +2366,33 @@
         <v>132</v>
       </c>
       <c r="DZ6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="EA6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="EA6" s="4" t="s">
+      <c r="EB6" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="EB6" s="4" t="s">
+      <c r="EC6" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="EC6" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -2741,46 +2725,46 @@
         <v>99</v>
       </c>
       <c r="DL7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DM7" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN7" t="s">
         <v>142</v>
       </c>
-      <c r="DN7" t="s">
+      <c r="DO7" t="s">
+        <v>142</v>
+      </c>
+      <c r="DP7" t="s">
         <v>143</v>
       </c>
-      <c r="DO7" t="s">
-        <v>143</v>
-      </c>
-      <c r="DP7" t="s">
+      <c r="DQ7" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR7" t="s">
         <v>144</v>
       </c>
-      <c r="DQ7" t="s">
-        <v>213</v>
-      </c>
-      <c r="DR7" t="s">
+      <c r="DS7" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT7" t="s">
         <v>145</v>
       </c>
-      <c r="DS7" t="s">
-        <v>213</v>
-      </c>
-      <c r="DT7" t="s">
+      <c r="DU7" t="s">
         <v>146</v>
       </c>
-      <c r="DU7" t="s">
+      <c r="DV7" t="s">
         <v>147</v>
       </c>
-      <c r="DV7" t="s">
+      <c r="DW7" t="s">
         <v>148</v>
       </c>
-      <c r="DW7" t="s">
-        <v>149</v>
-      </c>
       <c r="DX7" t="s">
-        <v>173</v>
-      </c>
-      <c r="DY7" t="s">
-        <v>150</v>
+        <v>169</v>
+      </c>
+      <c r="DY7" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="DZ7">
         <v>0</v>
@@ -2788,19 +2772,19 @@
     </row>
     <row r="8" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
@@ -3133,46 +3117,46 @@
         <v>109</v>
       </c>
       <c r="DL8" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>142</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>142</v>
+      </c>
+      <c r="DP8" t="s">
         <v>152</v>
       </c>
-      <c r="DM8" t="s">
-        <v>142</v>
-      </c>
-      <c r="DN8" t="s">
-        <v>143</v>
-      </c>
-      <c r="DO8" t="s">
-        <v>143</v>
-      </c>
-      <c r="DP8" t="s">
+      <c r="DQ8" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT8" t="s">
         <v>154</v>
       </c>
-      <c r="DQ8" t="s">
-        <v>213</v>
-      </c>
-      <c r="DR8" t="s">
+      <c r="DU8" t="s">
+        <v>146</v>
+      </c>
+      <c r="DV8" t="s">
         <v>155</v>
       </c>
-      <c r="DS8" t="s">
-        <v>213</v>
-      </c>
-      <c r="DT8" t="s">
+      <c r="DW8" t="s">
         <v>156</v>
       </c>
-      <c r="DU8" t="s">
-        <v>147</v>
-      </c>
-      <c r="DV8" t="s">
-        <v>157</v>
-      </c>
-      <c r="DW8" t="s">
-        <v>158</v>
-      </c>
       <c r="DX8" t="s">
-        <v>173</v>
-      </c>
-      <c r="DY8" t="s">
-        <v>159</v>
+        <v>169</v>
+      </c>
+      <c r="DY8" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="DZ8">
         <v>1</v>
@@ -3180,19 +3164,19 @@
     </row>
     <row r="9" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -3525,46 +3509,46 @@
         <v>106</v>
       </c>
       <c r="DL9" t="s">
+        <v>158</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>142</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>142</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>152</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>160</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT9" t="s">
         <v>161</v>
       </c>
-      <c r="DM9" t="s">
-        <v>142</v>
-      </c>
-      <c r="DN9" t="s">
-        <v>143</v>
-      </c>
-      <c r="DO9" t="s">
-        <v>143</v>
-      </c>
-      <c r="DP9" t="s">
-        <v>154</v>
-      </c>
-      <c r="DQ9" t="s">
-        <v>213</v>
-      </c>
-      <c r="DR9" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>213</v>
-      </c>
-      <c r="DT9" t="s">
-        <v>164</v>
-      </c>
       <c r="DU9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DV9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="DW9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="DX9" t="s">
-        <v>173</v>
-      </c>
-      <c r="DY9" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="DY9" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="DZ9">
         <v>2</v>
@@ -3572,19 +3556,19 @@
     </row>
     <row r="10" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -3917,46 +3901,46 @@
         <v>101</v>
       </c>
       <c r="DL10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>142</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>142</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>166</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>160</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>167</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DV10" t="s">
         <v>168</v>
       </c>
-      <c r="DM10" t="s">
-        <v>142</v>
-      </c>
-      <c r="DN10" t="s">
-        <v>143</v>
-      </c>
-      <c r="DO10" t="s">
-        <v>143</v>
-      </c>
-      <c r="DP10" t="s">
-        <v>170</v>
-      </c>
-      <c r="DQ10" t="s">
-        <v>213</v>
-      </c>
-      <c r="DR10" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS10" t="s">
-        <v>213</v>
-      </c>
-      <c r="DT10" t="s">
-        <v>171</v>
-      </c>
-      <c r="DU10" t="s">
-        <v>147</v>
-      </c>
-      <c r="DV10" t="s">
-        <v>172</v>
-      </c>
       <c r="DW10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="DX10" t="s">
-        <v>173</v>
-      </c>
-      <c r="DY10" t="s">
-        <v>174</v>
+        <v>169</v>
+      </c>
+      <c r="DY10" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="DZ10">
         <v>2</v>
@@ -3964,19 +3948,19 @@
     </row>
     <row r="11" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -4309,46 +4293,46 @@
         <v>109</v>
       </c>
       <c r="DL11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="DM11" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN11" t="s">
         <v>142</v>
       </c>
-      <c r="DN11" t="s">
-        <v>143</v>
-      </c>
       <c r="DO11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DP11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="DQ11" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="DR11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="DS11" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="DT11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="DU11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DV11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="DW11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="DX11" t="s">
-        <v>178</v>
-      </c>
-      <c r="DY11" t="s">
-        <v>179</v>
+        <v>173</v>
+      </c>
+      <c r="DY11" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="DZ11">
         <v>2</v>
@@ -4356,19 +4340,19 @@
     </row>
     <row r="12" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
@@ -4701,46 +4685,46 @@
         <v>109</v>
       </c>
       <c r="DL12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="DM12" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN12" t="s">
         <v>142</v>
       </c>
-      <c r="DN12" t="s">
-        <v>143</v>
-      </c>
       <c r="DO12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DP12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="DQ12" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="DR12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="DS12" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="DT12" t="s">
+        <v>145</v>
+      </c>
+      <c r="DU12" t="s">
         <v>146</v>
       </c>
-      <c r="DU12" t="s">
-        <v>147</v>
-      </c>
       <c r="DV12" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="DW12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="DX12" t="s">
-        <v>184</v>
-      </c>
-      <c r="DY12" t="s">
-        <v>150</v>
+        <v>178</v>
+      </c>
+      <c r="DY12" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="DZ12">
         <v>2</v>
@@ -4748,19 +4732,19 @@
     </row>
     <row r="13" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F13" s="2">
         <v>3</v>
@@ -5093,46 +5077,46 @@
         <v>109</v>
       </c>
       <c r="DL13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="DM13" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN13" t="s">
         <v>142</v>
       </c>
-      <c r="DN13" t="s">
+      <c r="DO13" t="s">
+        <v>142</v>
+      </c>
+      <c r="DP13" t="s">
         <v>143</v>
       </c>
-      <c r="DO13" t="s">
-        <v>143</v>
-      </c>
-      <c r="DP13" t="s">
-        <v>144</v>
-      </c>
       <c r="DQ13" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="DR13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="DS13" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="DT13" t="s">
+        <v>145</v>
+      </c>
+      <c r="DU13" t="s">
         <v>146</v>
       </c>
-      <c r="DU13" t="s">
-        <v>147</v>
-      </c>
       <c r="DV13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="DW13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="DX13" t="s">
-        <v>173</v>
-      </c>
-      <c r="DY13" t="s">
-        <v>189</v>
+        <v>169</v>
+      </c>
+      <c r="DY13" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="DZ13">
         <v>2</v>
@@ -5140,19 +5124,19 @@
     </row>
     <row r="14" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -5485,46 +5469,46 @@
         <v>107</v>
       </c>
       <c r="DL14" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="DM14" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN14" t="s">
         <v>142</v>
       </c>
-      <c r="DN14" t="s">
-        <v>143</v>
-      </c>
       <c r="DO14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DP14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="DQ14" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="DR14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="DS14" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="DT14" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="DU14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DV14" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="DW14" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="DX14" t="s">
-        <v>184</v>
-      </c>
-      <c r="DY14" t="s">
-        <v>189</v>
+        <v>178</v>
+      </c>
+      <c r="DY14" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="DZ14">
         <v>2</v>
@@ -5532,19 +5516,19 @@
     </row>
     <row r="15" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -5877,46 +5861,46 @@
         <v>109</v>
       </c>
       <c r="DL15" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="DM15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="DN15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DO15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DP15" t="s">
+        <v>152</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>160</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT15" t="s">
         <v>154</v>
       </c>
-      <c r="DQ15" t="s">
-        <v>213</v>
-      </c>
-      <c r="DR15" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS15" t="s">
-        <v>213</v>
-      </c>
-      <c r="DT15" t="s">
-        <v>156</v>
-      </c>
       <c r="DU15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DV15" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="DW15" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="DX15" t="s">
-        <v>184</v>
-      </c>
-      <c r="DY15" t="s">
-        <v>201</v>
+        <v>178</v>
+      </c>
+      <c r="DY15" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="DZ15">
         <v>3</v>
@@ -5924,19 +5908,19 @@
     </row>
     <row r="16" spans="1:133" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -6269,46 +6253,46 @@
         <v>106</v>
       </c>
       <c r="DL16" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="DM16" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN16" t="s">
         <v>142</v>
       </c>
-      <c r="DN16" t="s">
+      <c r="DO16" t="s">
+        <v>142</v>
+      </c>
+      <c r="DP16" t="s">
         <v>143</v>
       </c>
-      <c r="DO16" t="s">
-        <v>143</v>
-      </c>
-      <c r="DP16" t="s">
-        <v>144</v>
-      </c>
       <c r="DQ16" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="DR16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="DS16" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="DT16" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="DU16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DV16" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="DW16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="DX16" t="s">
+        <v>198</v>
+      </c>
+      <c r="DY16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="DY16" t="s">
-        <v>207</v>
       </c>
       <c r="DZ16">
         <v>3</v>
@@ -6316,19 +6300,19 @@
     </row>
     <row r="17" spans="1:130" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F17" s="2">
         <v>2</v>
@@ -6661,50 +6645,62 @@
         <v>109</v>
       </c>
       <c r="DL17" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="DM17" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN17" t="s">
         <v>142</v>
       </c>
-      <c r="DN17" t="s">
-        <v>143</v>
-      </c>
       <c r="DO17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DP17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="DQ17" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="DR17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="DS17" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="DT17" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="DU17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DV17" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="DW17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="DX17" t="s">
-        <v>212</v>
-      </c>
-      <c r="DY17" t="s">
-        <v>207</v>
+        <v>203</v>
+      </c>
+      <c r="DY17" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="DZ17">
         <v>3</v>
       </c>
+    </row>
+    <row r="18" spans="1:130" x14ac:dyDescent="0.35">
+      <c r="DY18" s="7"/>
+    </row>
+    <row r="19" spans="1:130" x14ac:dyDescent="0.35">
+      <c r="DY19" s="7"/>
+    </row>
+    <row r="20" spans="1:130" x14ac:dyDescent="0.35">
+      <c r="DY20" s="7"/>
+    </row>
+    <row r="21" spans="1:130" x14ac:dyDescent="0.35">
+      <c r="DY21" s="7"/>
     </row>
     <row r="35" spans="114:114" x14ac:dyDescent="0.35">
       <c r="DJ35" s="2"/>
